--- a/Excels/Screens.xlsx
+++ b/Excels/Screens.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Cosas\workspace4\KinCartaDemo2\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Cosas\workspace4\SeleniumDemo\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512F5FBB-2ABA-4488-8D4C-3F4901A5442B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DED04BE-05BB-42E0-95A8-50341F1D5F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="15405" windowHeight="10920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="2" r:id="rId1"/>
+    <sheet name="Search" sheetId="4" r:id="rId2"/>
+    <sheet name="Item" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>//input[@id='twotabsearchtextbox']</t>
   </si>
@@ -110,13 +112,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="2"/>
+      <b/>
+      <sz val="24"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,14 +131,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,17 +155,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -182,8 +167,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,61 +259,142 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1552182</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>695254</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Kin + Carta | LinkedIn">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C3F10C-2E16-426A-9D19-3BE3F944767B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14842843-F908-4812-BCE9-179EFA628179}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="0"/>
-          <a:ext cx="1762125" cy="762000"/>
+          <a:off x="885825" y="123825"/>
+          <a:ext cx="3142857" cy="571429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1542657</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>657154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6740EA-EEB1-48F8-932A-39DA33832F3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="85725"/>
+          <a:ext cx="3142857" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1609332</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>647629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A23919-5DE5-4CA3-AE78-28EF31805052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="76200"/>
+          <a:ext cx="3142857" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -633,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -647,65 +713,25 @@
     <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -718,4 +744,104 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFD8280-4E2B-45FE-98FF-CE86B255BD5F}">
+  <dimension ref="B1:C3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6221DBD9-E9ED-4C55-B2A2-B3F7C6BBFE3C}">
+  <dimension ref="B1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>